--- a/DatosMetroUpdate.xlsx
+++ b/DatosMetroUpdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f75f1ef1e9600181/Escritorio/git_carpeta/OptiG65/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D4D7F-4A22-4FD1-83CB-23D71371C992}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A09707A-CA3C-499C-9180-18F45133814E}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="195" windowWidth="18180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="2790" windowWidth="18180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +423,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>32.3568</v>
+        <v>25.357600000000001</v>
       </c>
       <c r="D8">
         <v>334248</v>
@@ -565,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>32.3568</v>
+        <v>25.357600000000001</v>
       </c>
       <c r="D9">
         <v>151708</v>
@@ -578,6 +582,9 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10">
+        <v>20.453800000000001</v>
+      </c>
       <c r="D10">
         <v>221054</v>
       </c>
@@ -589,6 +596,9 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11">
+        <v>20.453800000000001</v>
+      </c>
       <c r="D11">
         <v>227730</v>
       </c>
@@ -600,6 +610,9 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12">
+        <v>20.453800000000001</v>
+      </c>
       <c r="D12">
         <v>111272</v>
       </c>
@@ -611,6 +624,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13">
+        <v>23.154699999999998</v>
+      </c>
       <c r="D13">
         <v>153937</v>
       </c>
@@ -622,6 +638,9 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>22.483599999999999</v>
+      </c>
       <c r="D14">
         <v>241774</v>
       </c>
@@ -633,6 +652,9 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>26.398599999999998</v>
+      </c>
       <c r="D15">
         <v>149136</v>
       </c>
@@ -644,6 +666,9 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>27.732500000000002</v>
+      </c>
       <c r="D16">
         <v>184739</v>
       </c>
@@ -655,6 +680,9 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
+      <c r="C17">
+        <v>19.946200000000001</v>
+      </c>
       <c r="D17">
         <v>223574</v>
       </c>
@@ -666,6 +694,9 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>24.839099999999998</v>
+      </c>
       <c r="D18">
         <v>202331</v>
       </c>
@@ -677,6 +708,9 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>24.839099999999998</v>
+      </c>
       <c r="D19">
         <v>151749</v>
       </c>
@@ -688,6 +722,9 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>24.839099999999998</v>
+      </c>
       <c r="D20">
         <v>131808</v>
       </c>
@@ -698,6 +735,9 @@
       </c>
       <c r="B21" t="s">
         <v>19</v>
+      </c>
+      <c r="C21">
+        <v>24.839099999999998</v>
       </c>
       <c r="D21">
         <v>116262</v>

--- a/DatosMetroUpdate.xlsx
+++ b/DatosMetroUpdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f75f1ef1e9600181/Escritorio/git_carpeta/OptiG65/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A09707A-CA3C-499C-9180-18F45133814E}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CB0A02-08D8-4514-9F2A-52EDC27B869D}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="2790" windowWidth="18180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,18 +420,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -445,10 +466,70 @@
         <v>5250565</v>
       </c>
       <c r="E1">
-        <v>132</v>
+        <v>99999999999</v>
+      </c>
+      <c r="F1">
+        <v>220</v>
+      </c>
+      <c r="G1">
+        <v>792</v>
+      </c>
+      <c r="H1">
+        <v>880</v>
+      </c>
+      <c r="I1">
+        <v>858</v>
+      </c>
+      <c r="J1">
+        <v>1518</v>
+      </c>
+      <c r="K1">
+        <v>2266</v>
+      </c>
+      <c r="L1">
+        <v>2376</v>
+      </c>
+      <c r="M1">
+        <v>2310</v>
+      </c>
+      <c r="N1">
+        <v>10362</v>
+      </c>
+      <c r="O1">
+        <v>10252</v>
+      </c>
+      <c r="P1">
+        <v>7546</v>
+      </c>
+      <c r="Q1">
+        <v>17776</v>
+      </c>
+      <c r="R1">
+        <v>1870</v>
+      </c>
+      <c r="S1">
+        <v>4136</v>
+      </c>
+      <c r="T1">
+        <v>8844</v>
+      </c>
+      <c r="U1">
+        <v>11176</v>
+      </c>
+      <c r="V1">
+        <v>11352</v>
+      </c>
+      <c r="W1">
+        <v>11264</v>
+      </c>
+      <c r="X1">
+        <v>11374</v>
+      </c>
+      <c r="Y1">
+        <v>11440</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,10 +543,70 @@
         <v>700000</v>
       </c>
       <c r="E2">
-        <v>156</v>
+        <v>220</v>
+      </c>
+      <c r="F2">
+        <v>99999999999</v>
+      </c>
+      <c r="G2">
+        <v>1012</v>
+      </c>
+      <c r="H2">
+        <v>682</v>
+      </c>
+      <c r="I2">
+        <v>726</v>
+      </c>
+      <c r="J2">
+        <v>1452</v>
+      </c>
+      <c r="K2">
+        <v>2134</v>
+      </c>
+      <c r="L2">
+        <v>2156</v>
+      </c>
+      <c r="M2">
+        <v>2222</v>
+      </c>
+      <c r="N2">
+        <v>10076</v>
+      </c>
+      <c r="O2">
+        <v>9966</v>
+      </c>
+      <c r="P2">
+        <v>7238</v>
+      </c>
+      <c r="Q2">
+        <v>17556</v>
+      </c>
+      <c r="R2">
+        <v>2112</v>
+      </c>
+      <c r="S2">
+        <v>4202</v>
+      </c>
+      <c r="T2">
+        <v>8910</v>
+      </c>
+      <c r="U2">
+        <v>11242</v>
+      </c>
+      <c r="V2">
+        <v>11418</v>
+      </c>
+      <c r="W2">
+        <v>11308</v>
+      </c>
+      <c r="X2">
+        <v>11440</v>
+      </c>
+      <c r="Y2">
+        <v>11484</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,10 +620,70 @@
         <v>217449</v>
       </c>
       <c r="E3">
-        <v>225</v>
+        <v>792</v>
+      </c>
+      <c r="F3">
+        <v>1012</v>
+      </c>
+      <c r="G3">
+        <v>99999999999</v>
+      </c>
+      <c r="H3">
+        <v>286</v>
+      </c>
+      <c r="I3">
+        <v>814</v>
+      </c>
+      <c r="J3">
+        <v>242</v>
+      </c>
+      <c r="K3">
+        <v>2068</v>
+      </c>
+      <c r="L3">
+        <v>2112</v>
+      </c>
+      <c r="M3">
+        <v>2156</v>
+      </c>
+      <c r="N3">
+        <v>8570</v>
+      </c>
+      <c r="O3">
+        <v>9460</v>
+      </c>
+      <c r="P3">
+        <v>6776</v>
+      </c>
+      <c r="Q3">
+        <v>16874</v>
+      </c>
+      <c r="R3">
+        <v>1078</v>
+      </c>
+      <c r="S3">
+        <v>2904</v>
+      </c>
+      <c r="T3">
+        <v>7612</v>
+      </c>
+      <c r="U3">
+        <v>9944</v>
+      </c>
+      <c r="V3">
+        <v>10120</v>
+      </c>
+      <c r="W3">
+        <v>10010</v>
+      </c>
+      <c r="X3">
+        <v>10142</v>
+      </c>
+      <c r="Y3">
+        <v>10186</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,10 +697,70 @@
         <v>378444</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>880</v>
+      </c>
+      <c r="F4">
+        <v>682</v>
+      </c>
+      <c r="G4">
+        <v>286</v>
+      </c>
+      <c r="H4">
+        <v>99999999999</v>
+      </c>
+      <c r="I4">
+        <v>528</v>
+      </c>
+      <c r="J4">
+        <v>594</v>
+      </c>
+      <c r="K4">
+        <v>2464</v>
+      </c>
+      <c r="L4">
+        <v>2508</v>
+      </c>
+      <c r="M4">
+        <v>2530</v>
+      </c>
+      <c r="N4">
+        <v>10604</v>
+      </c>
+      <c r="O4">
+        <v>10472</v>
+      </c>
+      <c r="P4">
+        <v>7766</v>
+      </c>
+      <c r="Q4">
+        <v>17886</v>
+      </c>
+      <c r="R4">
+        <v>1826</v>
+      </c>
+      <c r="S4">
+        <v>3520</v>
+      </c>
+      <c r="T4">
+        <v>8228</v>
+      </c>
+      <c r="U4">
+        <v>10560</v>
+      </c>
+      <c r="V4">
+        <v>10736</v>
+      </c>
+      <c r="W4">
+        <v>10626</v>
+      </c>
+      <c r="X4">
+        <v>10758</v>
+      </c>
+      <c r="Y4">
+        <v>10802</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,10 +774,70 @@
         <v>267553</v>
       </c>
       <c r="E5">
-        <v>203</v>
+        <v>858</v>
+      </c>
+      <c r="F5">
+        <v>726</v>
+      </c>
+      <c r="G5">
+        <v>814</v>
+      </c>
+      <c r="H5">
+        <v>528</v>
+      </c>
+      <c r="I5">
+        <v>99999999999</v>
+      </c>
+      <c r="J5">
+        <v>748</v>
+      </c>
+      <c r="K5">
+        <v>2442</v>
+      </c>
+      <c r="L5">
+        <v>2508</v>
+      </c>
+      <c r="M5">
+        <v>2442</v>
+      </c>
+      <c r="N5">
+        <v>10252</v>
+      </c>
+      <c r="O5">
+        <v>10142</v>
+      </c>
+      <c r="P5">
+        <v>7458</v>
+      </c>
+      <c r="Q5">
+        <v>17776</v>
+      </c>
+      <c r="R5">
+        <v>1628</v>
+      </c>
+      <c r="S5">
+        <v>3520</v>
+      </c>
+      <c r="T5">
+        <v>8228</v>
+      </c>
+      <c r="U5">
+        <v>10560</v>
+      </c>
+      <c r="V5">
+        <v>10714</v>
+      </c>
+      <c r="W5">
+        <v>10582</v>
+      </c>
+      <c r="X5">
+        <v>10714</v>
+      </c>
+      <c r="Y5">
+        <v>10758</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,10 +851,70 @@
         <v>185966</v>
       </c>
       <c r="E6">
-        <v>350</v>
+        <v>1518</v>
+      </c>
+      <c r="F6">
+        <v>1452</v>
+      </c>
+      <c r="G6">
+        <v>242</v>
+      </c>
+      <c r="H6">
+        <v>594</v>
+      </c>
+      <c r="I6">
+        <v>748</v>
+      </c>
+      <c r="J6">
+        <v>99999999999</v>
+      </c>
+      <c r="K6">
+        <v>2266</v>
+      </c>
+      <c r="L6">
+        <v>2376</v>
+      </c>
+      <c r="M6">
+        <v>2310</v>
+      </c>
+      <c r="N6">
+        <v>10362</v>
+      </c>
+      <c r="O6">
+        <v>10252</v>
+      </c>
+      <c r="P6">
+        <v>7546</v>
+      </c>
+      <c r="Q6">
+        <v>17776</v>
+      </c>
+      <c r="R6">
+        <v>1870</v>
+      </c>
+      <c r="S6">
+        <v>4136</v>
+      </c>
+      <c r="T6">
+        <v>8844</v>
+      </c>
+      <c r="U6">
+        <v>11176</v>
+      </c>
+      <c r="V6">
+        <v>11358</v>
+      </c>
+      <c r="W6">
+        <v>11264</v>
+      </c>
+      <c r="X6">
+        <v>11374</v>
+      </c>
+      <c r="Y6">
+        <v>11418</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -546,8 +927,71 @@
       <c r="D7">
         <v>296655</v>
       </c>
+      <c r="E7">
+        <v>2266</v>
+      </c>
+      <c r="F7">
+        <v>2134</v>
+      </c>
+      <c r="G7">
+        <v>2068</v>
+      </c>
+      <c r="H7">
+        <v>2464</v>
+      </c>
+      <c r="I7">
+        <v>2442</v>
+      </c>
+      <c r="J7">
+        <v>2266</v>
+      </c>
+      <c r="K7">
+        <v>99999999999</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
+      <c r="M7">
+        <v>220</v>
+      </c>
+      <c r="N7">
+        <v>10164</v>
+      </c>
+      <c r="O7">
+        <v>10054</v>
+      </c>
+      <c r="P7">
+        <v>7370</v>
+      </c>
+      <c r="Q7">
+        <v>17358</v>
+      </c>
+      <c r="R7">
+        <v>2310</v>
+      </c>
+      <c r="S7">
+        <v>4048</v>
+      </c>
+      <c r="T7">
+        <v>8668</v>
+      </c>
+      <c r="U7">
+        <v>11066</v>
+      </c>
+      <c r="V7">
+        <v>11418</v>
+      </c>
+      <c r="W7">
+        <v>11220</v>
+      </c>
+      <c r="X7">
+        <v>11330</v>
+      </c>
+      <c r="Y7">
+        <v>11374</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,8 +1004,71 @@
       <c r="D8">
         <v>334248</v>
       </c>
+      <c r="E8">
+        <v>2376</v>
+      </c>
+      <c r="F8">
+        <v>2156</v>
+      </c>
+      <c r="G8">
+        <v>2112</v>
+      </c>
+      <c r="H8">
+        <v>2508</v>
+      </c>
+      <c r="I8">
+        <v>2508</v>
+      </c>
+      <c r="J8">
+        <v>2376</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>99999999999</v>
+      </c>
+      <c r="M8">
+        <v>132</v>
+      </c>
+      <c r="N8">
+        <v>10098</v>
+      </c>
+      <c r="O8">
+        <v>9988</v>
+      </c>
+      <c r="P8">
+        <v>7282</v>
+      </c>
+      <c r="Q8">
+        <v>17490</v>
+      </c>
+      <c r="R8">
+        <v>2288</v>
+      </c>
+      <c r="S8">
+        <v>4048</v>
+      </c>
+      <c r="T8">
+        <v>8712</v>
+      </c>
+      <c r="U8">
+        <v>11066</v>
+      </c>
+      <c r="V8">
+        <v>11396</v>
+      </c>
+      <c r="W8">
+        <v>11242</v>
+      </c>
+      <c r="X8">
+        <v>11374</v>
+      </c>
+      <c r="Y8">
+        <v>11418</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -574,8 +1081,71 @@
       <c r="D9">
         <v>151708</v>
       </c>
+      <c r="E9">
+        <v>2310</v>
+      </c>
+      <c r="F9">
+        <v>2222</v>
+      </c>
+      <c r="G9">
+        <v>2156</v>
+      </c>
+      <c r="H9">
+        <v>2530</v>
+      </c>
+      <c r="I9">
+        <v>2442</v>
+      </c>
+      <c r="J9">
+        <v>2310</v>
+      </c>
+      <c r="K9">
+        <v>220</v>
+      </c>
+      <c r="L9">
+        <v>132</v>
+      </c>
+      <c r="M9">
+        <v>99999999999</v>
+      </c>
+      <c r="N9">
+        <v>9900</v>
+      </c>
+      <c r="O9">
+        <v>9790</v>
+      </c>
+      <c r="P9">
+        <v>7084</v>
+      </c>
+      <c r="Q9">
+        <v>17292</v>
+      </c>
+      <c r="R9">
+        <v>2222</v>
+      </c>
+      <c r="S9">
+        <v>3982</v>
+      </c>
+      <c r="T9">
+        <v>8624</v>
+      </c>
+      <c r="U9">
+        <v>10956</v>
+      </c>
+      <c r="V9">
+        <v>11286</v>
+      </c>
+      <c r="W9">
+        <v>11132</v>
+      </c>
+      <c r="X9">
+        <v>11288</v>
+      </c>
+      <c r="Y9">
+        <v>11332</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -588,8 +1158,71 @@
       <c r="D10">
         <v>221054</v>
       </c>
+      <c r="E10">
+        <v>10362</v>
+      </c>
+      <c r="F10">
+        <v>10076</v>
+      </c>
+      <c r="G10">
+        <v>8570</v>
+      </c>
+      <c r="H10">
+        <v>10604</v>
+      </c>
+      <c r="I10">
+        <v>10252</v>
+      </c>
+      <c r="J10">
+        <v>10362</v>
+      </c>
+      <c r="K10">
+        <v>10164</v>
+      </c>
+      <c r="L10">
+        <v>10098</v>
+      </c>
+      <c r="M10">
+        <v>9900</v>
+      </c>
+      <c r="N10">
+        <v>99999999999</v>
+      </c>
+      <c r="O10">
+        <v>374</v>
+      </c>
+      <c r="P10">
+        <v>1628</v>
+      </c>
+      <c r="Q10">
+        <v>5764</v>
+      </c>
+      <c r="R10">
+        <v>8316</v>
+      </c>
+      <c r="S10">
+        <v>8140</v>
+      </c>
+      <c r="T10">
+        <v>10230</v>
+      </c>
+      <c r="U10">
+        <v>12716</v>
+      </c>
+      <c r="V10">
+        <v>12870</v>
+      </c>
+      <c r="W10">
+        <v>12760</v>
+      </c>
+      <c r="X10">
+        <v>12892</v>
+      </c>
+      <c r="Y10">
+        <v>12936</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -602,8 +1235,71 @@
       <c r="D11">
         <v>227730</v>
       </c>
+      <c r="E11">
+        <v>10252</v>
+      </c>
+      <c r="F11">
+        <v>9966</v>
+      </c>
+      <c r="G11">
+        <v>9460</v>
+      </c>
+      <c r="H11">
+        <v>10472</v>
+      </c>
+      <c r="I11">
+        <v>10142</v>
+      </c>
+      <c r="J11">
+        <v>10252</v>
+      </c>
+      <c r="K11">
+        <v>10054</v>
+      </c>
+      <c r="L11">
+        <v>9988</v>
+      </c>
+      <c r="M11">
+        <v>9790</v>
+      </c>
+      <c r="N11">
+        <v>374</v>
+      </c>
+      <c r="O11">
+        <v>99999999999</v>
+      </c>
+      <c r="P11">
+        <v>1254</v>
+      </c>
+      <c r="Q11">
+        <v>5456</v>
+      </c>
+      <c r="R11">
+        <v>8074</v>
+      </c>
+      <c r="S11">
+        <v>7920</v>
+      </c>
+      <c r="T11">
+        <v>10032</v>
+      </c>
+      <c r="U11">
+        <v>12518</v>
+      </c>
+      <c r="V11">
+        <v>12672</v>
+      </c>
+      <c r="W11">
+        <v>12584</v>
+      </c>
+      <c r="X11">
+        <v>12716</v>
+      </c>
+      <c r="Y11">
+        <v>12760</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -616,8 +1312,71 @@
       <c r="D12">
         <v>111272</v>
       </c>
+      <c r="E12">
+        <v>7546</v>
+      </c>
+      <c r="F12">
+        <v>7238</v>
+      </c>
+      <c r="G12">
+        <v>6776</v>
+      </c>
+      <c r="H12">
+        <v>7766</v>
+      </c>
+      <c r="I12">
+        <v>7458</v>
+      </c>
+      <c r="J12">
+        <v>7546</v>
+      </c>
+      <c r="K12">
+        <v>7370</v>
+      </c>
+      <c r="L12">
+        <v>7282</v>
+      </c>
+      <c r="M12">
+        <v>7084</v>
+      </c>
+      <c r="N12">
+        <v>1628</v>
+      </c>
+      <c r="O12">
+        <v>1254</v>
+      </c>
+      <c r="P12">
+        <v>99999999999</v>
+      </c>
+      <c r="Q12">
+        <v>4048</v>
+      </c>
+      <c r="R12">
+        <v>6710</v>
+      </c>
+      <c r="S12">
+        <v>5566</v>
+      </c>
+      <c r="T12">
+        <v>7744</v>
+      </c>
+      <c r="U12">
+        <v>10032</v>
+      </c>
+      <c r="V12">
+        <v>10186</v>
+      </c>
+      <c r="W12">
+        <v>10054</v>
+      </c>
+      <c r="X12">
+        <v>10230</v>
+      </c>
+      <c r="Y12">
+        <v>10274</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -630,8 +1389,71 @@
       <c r="D13">
         <v>153937</v>
       </c>
+      <c r="E13">
+        <v>17776</v>
+      </c>
+      <c r="F13">
+        <v>17556</v>
+      </c>
+      <c r="G13">
+        <v>16874</v>
+      </c>
+      <c r="H13">
+        <v>17886</v>
+      </c>
+      <c r="I13">
+        <v>17776</v>
+      </c>
+      <c r="J13">
+        <v>17776</v>
+      </c>
+      <c r="K13">
+        <v>17358</v>
+      </c>
+      <c r="L13">
+        <v>17490</v>
+      </c>
+      <c r="M13">
+        <v>17292</v>
+      </c>
+      <c r="N13">
+        <v>5764</v>
+      </c>
+      <c r="O13">
+        <v>5456</v>
+      </c>
+      <c r="P13">
+        <v>4048</v>
+      </c>
+      <c r="Q13">
+        <v>99999999999</v>
+      </c>
+      <c r="R13">
+        <v>14828</v>
+      </c>
+      <c r="S13">
+        <v>13156</v>
+      </c>
+      <c r="T13">
+        <v>12364</v>
+      </c>
+      <c r="U13">
+        <v>14696</v>
+      </c>
+      <c r="V13">
+        <v>14740</v>
+      </c>
+      <c r="W13">
+        <v>14762</v>
+      </c>
+      <c r="X13">
+        <v>14828</v>
+      </c>
+      <c r="Y13">
+        <v>14828</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -644,8 +1466,71 @@
       <c r="D14">
         <v>241774</v>
       </c>
+      <c r="E14">
+        <v>1870</v>
+      </c>
+      <c r="F14">
+        <v>2112</v>
+      </c>
+      <c r="G14">
+        <v>1078</v>
+      </c>
+      <c r="H14">
+        <v>1826</v>
+      </c>
+      <c r="I14">
+        <v>1628</v>
+      </c>
+      <c r="J14">
+        <v>1870</v>
+      </c>
+      <c r="K14">
+        <v>2310</v>
+      </c>
+      <c r="L14">
+        <v>2288</v>
+      </c>
+      <c r="M14">
+        <v>2222</v>
+      </c>
+      <c r="N14">
+        <v>8316</v>
+      </c>
+      <c r="O14">
+        <v>8074</v>
+      </c>
+      <c r="P14">
+        <v>6710</v>
+      </c>
+      <c r="Q14">
+        <v>14828</v>
+      </c>
+      <c r="R14">
+        <v>99999999999</v>
+      </c>
+      <c r="S14">
+        <v>1386</v>
+      </c>
+      <c r="T14">
+        <v>5742</v>
+      </c>
+      <c r="U14">
+        <v>8888</v>
+      </c>
+      <c r="V14">
+        <v>9724</v>
+      </c>
+      <c r="W14">
+        <v>8778</v>
+      </c>
+      <c r="X14">
+        <v>8910</v>
+      </c>
+      <c r="Y14">
+        <v>8954</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -658,8 +1543,71 @@
       <c r="D15">
         <v>149136</v>
       </c>
+      <c r="E15">
+        <v>4136</v>
+      </c>
+      <c r="F15">
+        <v>4202</v>
+      </c>
+      <c r="G15">
+        <v>2904</v>
+      </c>
+      <c r="H15">
+        <v>3520</v>
+      </c>
+      <c r="I15">
+        <v>3520</v>
+      </c>
+      <c r="J15">
+        <v>4136</v>
+      </c>
+      <c r="K15">
+        <v>4048</v>
+      </c>
+      <c r="L15">
+        <v>4048</v>
+      </c>
+      <c r="M15">
+        <v>3982</v>
+      </c>
+      <c r="N15">
+        <v>8140</v>
+      </c>
+      <c r="O15">
+        <v>7920</v>
+      </c>
+      <c r="P15">
+        <v>5566</v>
+      </c>
+      <c r="Q15">
+        <v>13156</v>
+      </c>
+      <c r="R15">
+        <v>1386</v>
+      </c>
+      <c r="S15">
+        <v>99999999999</v>
+      </c>
+      <c r="T15">
+        <v>3586</v>
+      </c>
+      <c r="U15">
+        <v>6732</v>
+      </c>
+      <c r="V15">
+        <v>7436</v>
+      </c>
+      <c r="W15">
+        <v>6556</v>
+      </c>
+      <c r="X15">
+        <v>6754</v>
+      </c>
+      <c r="Y15">
+        <v>6798</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -672,8 +1620,71 @@
       <c r="D16">
         <v>184739</v>
       </c>
+      <c r="E16">
+        <v>8844</v>
+      </c>
+      <c r="F16">
+        <v>8910</v>
+      </c>
+      <c r="G16">
+        <v>7612</v>
+      </c>
+      <c r="H16">
+        <v>8228</v>
+      </c>
+      <c r="I16">
+        <v>8228</v>
+      </c>
+      <c r="J16">
+        <v>8844</v>
+      </c>
+      <c r="K16">
+        <v>8668</v>
+      </c>
+      <c r="L16">
+        <v>8712</v>
+      </c>
+      <c r="M16">
+        <v>8624</v>
+      </c>
+      <c r="N16">
+        <v>10230</v>
+      </c>
+      <c r="O16">
+        <v>10032</v>
+      </c>
+      <c r="P16">
+        <v>7744</v>
+      </c>
+      <c r="Q16">
+        <v>12364</v>
+      </c>
+      <c r="R16">
+        <v>5742</v>
+      </c>
+      <c r="S16">
+        <v>3586</v>
+      </c>
+      <c r="T16">
+        <v>99999999999</v>
+      </c>
+      <c r="U16">
+        <v>2024</v>
+      </c>
+      <c r="V16">
+        <v>1826</v>
+      </c>
+      <c r="W16">
+        <v>2156</v>
+      </c>
+      <c r="X16">
+        <v>2398</v>
+      </c>
+      <c r="Y16">
+        <v>2442</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -686,8 +1697,71 @@
       <c r="D17">
         <v>223574</v>
       </c>
+      <c r="E17">
+        <v>11176</v>
+      </c>
+      <c r="F17">
+        <v>11242</v>
+      </c>
+      <c r="G17">
+        <v>9944</v>
+      </c>
+      <c r="H17">
+        <v>10560</v>
+      </c>
+      <c r="I17">
+        <v>10560</v>
+      </c>
+      <c r="J17">
+        <v>11176</v>
+      </c>
+      <c r="K17">
+        <v>11066</v>
+      </c>
+      <c r="L17">
+        <v>11066</v>
+      </c>
+      <c r="M17">
+        <v>10956</v>
+      </c>
+      <c r="N17">
+        <v>12716</v>
+      </c>
+      <c r="O17">
+        <v>12518</v>
+      </c>
+      <c r="P17">
+        <v>10032</v>
+      </c>
+      <c r="Q17">
+        <v>14696</v>
+      </c>
+      <c r="R17">
+        <v>8888</v>
+      </c>
+      <c r="S17">
+        <v>6732</v>
+      </c>
+      <c r="T17">
+        <v>2024</v>
+      </c>
+      <c r="U17">
+        <v>99999999999</v>
+      </c>
+      <c r="V17">
+        <v>2332</v>
+      </c>
+      <c r="W17">
+        <v>126</v>
+      </c>
+      <c r="X17">
+        <v>110</v>
+      </c>
+      <c r="Y17">
+        <v>154</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -700,8 +1774,71 @@
       <c r="D18">
         <v>202331</v>
       </c>
+      <c r="E18">
+        <v>11352</v>
+      </c>
+      <c r="F18">
+        <v>11418</v>
+      </c>
+      <c r="G18">
+        <v>10120</v>
+      </c>
+      <c r="H18">
+        <v>10736</v>
+      </c>
+      <c r="I18">
+        <v>10714</v>
+      </c>
+      <c r="J18">
+        <v>11358</v>
+      </c>
+      <c r="K18">
+        <v>11418</v>
+      </c>
+      <c r="L18">
+        <v>11396</v>
+      </c>
+      <c r="M18">
+        <v>11286</v>
+      </c>
+      <c r="N18">
+        <v>12870</v>
+      </c>
+      <c r="O18">
+        <v>12672</v>
+      </c>
+      <c r="P18">
+        <v>10186</v>
+      </c>
+      <c r="Q18">
+        <v>14740</v>
+      </c>
+      <c r="R18">
+        <v>9724</v>
+      </c>
+      <c r="S18">
+        <v>7436</v>
+      </c>
+      <c r="T18">
+        <v>1826</v>
+      </c>
+      <c r="U18">
+        <v>2332</v>
+      </c>
+      <c r="V18">
+        <v>99999999999</v>
+      </c>
+      <c r="W18">
+        <v>2398</v>
+      </c>
+      <c r="X18">
+        <v>2288</v>
+      </c>
+      <c r="Y18">
+        <v>2332</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -714,8 +1851,71 @@
       <c r="D19">
         <v>151749</v>
       </c>
+      <c r="E19">
+        <v>11264</v>
+      </c>
+      <c r="F19">
+        <v>11308</v>
+      </c>
+      <c r="G19">
+        <v>10010</v>
+      </c>
+      <c r="H19">
+        <v>10626</v>
+      </c>
+      <c r="I19">
+        <v>10582</v>
+      </c>
+      <c r="J19">
+        <v>11264</v>
+      </c>
+      <c r="K19">
+        <v>11220</v>
+      </c>
+      <c r="L19">
+        <v>11242</v>
+      </c>
+      <c r="M19">
+        <v>11132</v>
+      </c>
+      <c r="N19">
+        <v>12760</v>
+      </c>
+      <c r="O19">
+        <v>12584</v>
+      </c>
+      <c r="P19">
+        <v>10054</v>
+      </c>
+      <c r="Q19">
+        <v>14762</v>
+      </c>
+      <c r="R19">
+        <v>8778</v>
+      </c>
+      <c r="S19">
+        <v>6556</v>
+      </c>
+      <c r="T19">
+        <v>2156</v>
+      </c>
+      <c r="U19">
+        <v>126</v>
+      </c>
+      <c r="V19">
+        <v>2398</v>
+      </c>
+      <c r="W19">
+        <v>99999999999</v>
+      </c>
+      <c r="X19">
+        <v>154</v>
+      </c>
+      <c r="Y19">
+        <v>198</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -728,8 +1928,71 @@
       <c r="D20">
         <v>131808</v>
       </c>
+      <c r="E20">
+        <v>11374</v>
+      </c>
+      <c r="F20">
+        <v>11440</v>
+      </c>
+      <c r="G20">
+        <v>10142</v>
+      </c>
+      <c r="H20">
+        <v>10758</v>
+      </c>
+      <c r="I20">
+        <v>10714</v>
+      </c>
+      <c r="J20">
+        <v>11374</v>
+      </c>
+      <c r="K20">
+        <v>11330</v>
+      </c>
+      <c r="L20">
+        <v>11374</v>
+      </c>
+      <c r="M20">
+        <v>11288</v>
+      </c>
+      <c r="N20">
+        <v>12892</v>
+      </c>
+      <c r="O20">
+        <v>12716</v>
+      </c>
+      <c r="P20">
+        <v>10230</v>
+      </c>
+      <c r="Q20">
+        <v>14828</v>
+      </c>
+      <c r="R20">
+        <v>8910</v>
+      </c>
+      <c r="S20">
+        <v>6754</v>
+      </c>
+      <c r="T20">
+        <v>2398</v>
+      </c>
+      <c r="U20">
+        <v>110</v>
+      </c>
+      <c r="V20">
+        <v>2288</v>
+      </c>
+      <c r="W20">
+        <v>154</v>
+      </c>
+      <c r="X20">
+        <v>99999999999</v>
+      </c>
+      <c r="Y20">
+        <v>44</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -741,6 +2004,69 @@
       </c>
       <c r="D21">
         <v>116262</v>
+      </c>
+      <c r="E21">
+        <v>11440</v>
+      </c>
+      <c r="F21">
+        <v>11484</v>
+      </c>
+      <c r="G21">
+        <v>10186</v>
+      </c>
+      <c r="H21">
+        <v>10802</v>
+      </c>
+      <c r="I21">
+        <v>10758</v>
+      </c>
+      <c r="J21">
+        <v>11418</v>
+      </c>
+      <c r="K21">
+        <v>11374</v>
+      </c>
+      <c r="L21">
+        <v>11418</v>
+      </c>
+      <c r="M21">
+        <v>11332</v>
+      </c>
+      <c r="N21">
+        <v>12936</v>
+      </c>
+      <c r="O21">
+        <v>12760</v>
+      </c>
+      <c r="P21">
+        <v>10274</v>
+      </c>
+      <c r="Q21">
+        <v>14828</v>
+      </c>
+      <c r="R21">
+        <v>8954</v>
+      </c>
+      <c r="S21">
+        <v>6798</v>
+      </c>
+      <c r="T21">
+        <v>2442</v>
+      </c>
+      <c r="U21">
+        <v>154</v>
+      </c>
+      <c r="V21">
+        <v>2332</v>
+      </c>
+      <c r="W21">
+        <v>198</v>
+      </c>
+      <c r="X21">
+        <v>44</v>
+      </c>
+      <c r="Y21">
+        <v>99999999999</v>
       </c>
     </row>
   </sheetData>
